--- a/data_excel/QuanHuyen.xlsx
+++ b/data_excel/QuanHuyen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duong\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LH COMPUTER\Desktop\agri-tour-be\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6016E136-8228-4B35-913A-92F9E1009077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F003FE8-7C51-4DC1-8574-CC7312E132E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1296" windowWidth="21612" windowHeight="10788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -4445,9 +4445,6 @@
     <t>Huyện Ngọc Hiển</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -4455,6 +4452,9 @@
   </si>
   <si>
     <t>id_parent</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
 </sst>
 </file>
@@ -4468,7 +4468,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4517,7 +4517,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4802,40 +4802,40 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.296875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1474</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1476</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1475</v>
       </c>
       <c r="F1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>99</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>108</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>110</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>112</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>114</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>121</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>123</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>125</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>127</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>129</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>136</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>138</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>140</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>142</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>144</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>146</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>148</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>150</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>152</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>154</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>157</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>159</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>161</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>163</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>165</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>167</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>169</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>171</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>174</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>176</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>178</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>180</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>182</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>184</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>186</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>188</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>190</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>192</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>194</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>196</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>199</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>201</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>203</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>205</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>207</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>209</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>211</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>213</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>215</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>218</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>220</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>222</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>224</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>226</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>228</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>230</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>232</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>234</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>236</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>238</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>241</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>243</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>245</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>247</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>249</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>251</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>253</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>255</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>257</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>260</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>262</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>264</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>266</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>268</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>270</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>272</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>274</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>276</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>278</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>280</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>283</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>285</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>287</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>289</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>291</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>293</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>295</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>297</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>299</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>301</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>303</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>305</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>307</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>309</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>312</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>314</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>316</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>318</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>320</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>322</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>324</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>326</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>328</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>330</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>333</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>335</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>337</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>339</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>341</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>343</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>345</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>347</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>349</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>351</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>353</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>355</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>357</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>360</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>362</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>364</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>366</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>368</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>370</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>372</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>374</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>376</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>378</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>381</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>383</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>385</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>387</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>389</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>391</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>393</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>395</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>397</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>399</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>401</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>403</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>405</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>407</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>409</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>411</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>413</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>415</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>417</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>419</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>421</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>423</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>426</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>428</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>430</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>432</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>434</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>436</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>438</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>440</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>442</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>444</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>446</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>448</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>451</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>453</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>455</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>457</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>459</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>461</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>463</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>465</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>467</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>469</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>471</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>473</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>475</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>477</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>479</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>482</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>484</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>486</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>488</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>490</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>492</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>494</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>496</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>498</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>500</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>503</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>505</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>507</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>509</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>511</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>513</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>515</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>517</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>520</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>522</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>524</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>526</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>528</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>530</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>533</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>535</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>537</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>539</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>541</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>543</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>545</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>547</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>549</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>551</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>554</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>556</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>558</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>560</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>562</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>564</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>566</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>568</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>571</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>573</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>575</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>577</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>579</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>581</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>583</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>585</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>587</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>589</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>591</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>593</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>595</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>597</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>599</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>601</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>603</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>605</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>607</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>609</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>611</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>613</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>615</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>617</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>619</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>621</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>623</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>626</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>628</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>630</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>632</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>634</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>635</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>637</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>639</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>641</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>643</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>645</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>647</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>649</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>651</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>653</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>655</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>657</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>659</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>661</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>663</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>665</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>668</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>670</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>672</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>674</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>676</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>678</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>680</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>682</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>684</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>686</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>688</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>690</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>692</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>695</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>697</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>699</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>701</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>703</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>705</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>707</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>709</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>712</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>714</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>716</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>718</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>720</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>722</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>724</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>726</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>728</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>730</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>733</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>735</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>737</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>739</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>741</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>743</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>745</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>747</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>749</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>752</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>754</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>756</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>758</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>760</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>762</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>764</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>766</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>769</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>771</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>773</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>775</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>777</v>
       </c>
@@ -10057,7 +10057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>779</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>781</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>783</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>785</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>787</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>789</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>791</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>793</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>795</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>797</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>799</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>801</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>803</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>806</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>808</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>810</v>
       </c>
@@ -10281,7 +10281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>812</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>814</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>816</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>818</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>820</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>822</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>824</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>826</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>828</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>830</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>832</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>835</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>836</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>838</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>840</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>842</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>844</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>846</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>848</v>
       </c>
@@ -10547,7 +10547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>850</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>852</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>854</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>857</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>859</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>861</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>863</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>865</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>867</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>869</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>871</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>873</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>876</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>878</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>880</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>882</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>884</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>886</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>888</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>890</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>892</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>895</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>897</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>899</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>901</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>903</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>905</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>907</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>910</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>912</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>914</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>916</v>
       </c>
@@ -10995,7 +10995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>918</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>920</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>922</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>924</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>926</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>928</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>931</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>933</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>935</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>937</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>939</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>941</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>943</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>945</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>947</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>949</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>952</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>954</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>956</v>
       </c>
@@ -11261,7 +11261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>958</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>960</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>962</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>964</v>
       </c>
@@ -11317,7 +11317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>966</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>968</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>970</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>972</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>974</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>976</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>978</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>980</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>982</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>984</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>987</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>989</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>991</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>993</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>995</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>997</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>999</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>1001</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>1003</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>1005</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>1007</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>1009</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>1011</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>1013</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>1015</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>1018</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>1020</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>1022</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>1024</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>1026</v>
       </c>
@@ -11737,7 +11737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>1028</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>1030</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>1032</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>1035</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>1037</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>1039</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>1041</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>1043</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>1045</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>1047</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>1049</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>1050</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>1052</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>1054</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>1056</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>1059</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>1061</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>1063</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>1065</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>1067</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>1069</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>1071</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>1073</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>1075</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>1077</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>1079</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>1082</v>
       </c>
@@ -12115,7 +12115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>1084</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>1086</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>1088</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>1090</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>1092</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>1094</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>1096</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>1098</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>1101</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>1103</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>1105</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>1107</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>1109</v>
       </c>
@@ -12297,7 +12297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>1111</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>1113</v>
       </c>
@@ -12325,7 +12325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>1115</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>1117</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>1120</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>1122</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>1124</v>
       </c>
@@ -12395,7 +12395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>1126</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>1128</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>1130</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>1132</v>
       </c>
@@ -12451,7 +12451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>1134</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>1136</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>1138</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>1140</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>1143</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>1145</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>1147</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>1149</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>1151</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>1153</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>1155</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>1157</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>1160</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>1162</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>1164</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>1166</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>1168</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>1170</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>1172</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>1174</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>1176</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>1178</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>1180</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>1182</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>1184</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>1186</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>1188</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>1190</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>1192</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>1194</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>1196</v>
       </c>
@@ -12885,7 +12885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>1198</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>1200</v>
       </c>
@@ -12913,7 +12913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>1202</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>1204</v>
       </c>
@@ -12941,7 +12941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>1206</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>1209</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>1211</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>1213</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>1215</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>1217</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>1219</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>1221</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>1223</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>1225</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>1227</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>1229</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>1231</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>1233</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>1235</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>1236</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>1239</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>1241</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>1243</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>1245</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>1247</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>1249</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>1250</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>1252</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>1254</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>1256</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>1258</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>1261</v>
       </c>
@@ -13333,7 +13333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>1262</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>1264</v>
       </c>
@@ -13361,7 +13361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>1266</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>1268</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>1270</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>1272</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>1274</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>1276</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>1279</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>1281</v>
       </c>
@@ -13473,7 +13473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>1283</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>1285</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>1286</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>1288</v>
       </c>
@@ -13529,7 +13529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>1290</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>1292</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>1294</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>1297</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>1299</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>1301</v>
       </c>
@@ -13613,7 +13613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>1303</v>
       </c>
@@ -13627,7 +13627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>1305</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>1307</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>1309</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>1311</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>1314</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>1316</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>1318</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>1320</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>1322</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>1323</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>1325</v>
       </c>
@@ -13781,7 +13781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>1327</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>1329</v>
       </c>
@@ -13809,7 +13809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>1331</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>1333</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>1334</v>
       </c>
@@ -13851,7 +13851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>1337</v>
       </c>
@@ -13865,7 +13865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>1339</v>
       </c>
@@ -13879,7 +13879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>1341</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>1343</v>
       </c>
@@ -13907,7 +13907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>1345</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>1347</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>1349</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>1351</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>1352</v>
       </c>
@@ -13977,7 +13977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>1353</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>1355</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>1358</v>
       </c>
@@ -14019,7 +14019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>1360</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>1362</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>1364</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>1366</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>1367</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>1369</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>1371</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>1373</v>
       </c>
@@ -14131,7 +14131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>1375</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>1377</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>1379</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>1381</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>1383</v>
       </c>
@@ -14201,7 +14201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>1385</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>1388</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>1390</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>1392</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>1394</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>1396</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>1397</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>1399</v>
       </c>
@@ -14313,7 +14313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>1400</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>1402</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
         <v>1405</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
         <v>1407</v>
       </c>
@@ -14369,7 +14369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>1409</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
         <v>1410</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
         <v>1412</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
         <v>1414</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
         <v>1416</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
         <v>1418</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
         <v>1421</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="1" t="s">
         <v>1422</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
         <v>1424</v>
       </c>
@@ -14495,7 +14495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
         <v>1426</v>
       </c>
@@ -14509,7 +14509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" s="1" t="s">
         <v>1428</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
         <v>1430</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>1432</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
         <v>1434</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>1436</v>
       </c>
@@ -14579,7 +14579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
         <v>1438</v>
       </c>
@@ -14593,7 +14593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
         <v>1440</v>
       </c>
@@ -14607,7 +14607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>1443</v>
       </c>
@@ -14621,7 +14621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
         <v>1445</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" s="1" t="s">
         <v>1447</v>
       </c>
@@ -14649,7 +14649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
         <v>1449</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
         <v>1451</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" s="1" t="s">
         <v>1453</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
         <v>1455</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
         <v>1458</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
         <v>1460</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
         <v>1462</v>
       </c>
@@ -14747,7 +14747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
         <v>1464</v>
       </c>
@@ -14761,7 +14761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
         <v>1466</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
         <v>1468</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
         <v>1470</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" s="1" t="s">
         <v>1471</v>
       </c>
@@ -14848,319 +14848,319 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>1457</v>
       </c>
